--- a/Registro de Reportes de Tutorías.xlsx
+++ b/Registro de Reportes de Tutorías.xlsx
@@ -12,7 +12,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="84">
+  <si>
+    <t/>
+  </si>
   <si>
     <t>N/P</t>
   </si>
@@ -282,15 +285,25 @@
       <b val="true"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="darkGray"/>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="49"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="49"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -298,20 +311,90 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <bottom style="medium"/>
+    </border>
+    <border>
+      <bottom style="medium">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="medium"/>
+      <bottom style="medium">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="8"/>
+      </left>
+      <bottom style="medium">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="8"/>
+      </left>
+      <right style="medium"/>
+      <bottom style="medium">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="8"/>
+      </left>
+      <right style="medium">
+        <color indexed="8"/>
+      </right>
+      <bottom style="medium">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="8"/>
+      </left>
+      <right style="medium">
+        <color indexed="8"/>
+      </right>
+      <top style="medium"/>
+      <bottom style="medium">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="8"/>
+      </left>
+      <right style="medium">
+        <color indexed="8"/>
+      </right>
+      <top style="medium">
+        <color indexed="8"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="8"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyFill="true">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
 </styleSheet>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:O32"/>
+  <dimension ref="A1:O33"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -320,495 +403,500 @@
     <col min="1" max="1" width="4.62109375" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="41.69921875" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="5.11328125" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" width="18.4140625" customWidth="true" bestFit="true"/>
-    <col min="5" max="5" width="21.78515625" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="18.85546875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="11.16796875" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="16.7109375" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="12.8671875" customWidth="true" bestFit="true"/>
-    <col min="10" max="10" width="19.86328125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="21.65234375" customWidth="true" bestFit="true"/>
-    <col min="12" max="12" width="23.1328125" customWidth="true" bestFit="true"/>
-    <col min="13" max="13" width="25.875" customWidth="true" bestFit="true"/>
-    <col min="14" max="14" width="16.1796875" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="18.734375" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="22.24609375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="19.13671875" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="11.40234375" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="17.10546875" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="13.12890625" customWidth="true" bestFit="true"/>
+    <col min="10" max="10" width="20.32421875" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="22.20703125" customWidth="true" bestFit="true"/>
+    <col min="12" max="12" width="23.6953125" customWidth="true" bestFit="true"/>
+    <col min="13" max="13" width="26.4453125" customWidth="true" bestFit="true"/>
+    <col min="14" max="14" width="16.5625" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="s">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="C2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="D2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="E2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="F2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="G2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="H2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="I2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="J2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="K2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
+      <c r="L2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" t="s">
+      <c r="M2" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="s">
+      <c r="N2" s="1" t="s">
         <v>14</v>
-      </c>
-      <c r="B2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C2" t="s">
-        <v>16</v>
-      </c>
-      <c r="K2" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B3" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" t="s">
         <v>20</v>
       </c>
-      <c r="B4" t="s">
-        <v>21</v>
-      </c>
       <c r="C4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" t="s">
         <v>22</v>
       </c>
-      <c r="B5" t="s">
-        <v>23</v>
-      </c>
       <c r="C5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" t="s">
         <v>24</v>
       </c>
-      <c r="B6" t="s">
-        <v>25</v>
-      </c>
       <c r="C6" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7" t="s">
         <v>26</v>
       </c>
-      <c r="B7" t="s">
-        <v>27</v>
-      </c>
       <c r="C7" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="K7" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
+        <v>27</v>
+      </c>
+      <c r="B8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8" t="s">
+        <v>29</v>
+      </c>
+      <c r="K8" t="s">
         <v>30</v>
-      </c>
-      <c r="B8" t="s">
-        <v>31</v>
-      </c>
-      <c r="C8" t="s">
-        <v>28</v>
-      </c>
-      <c r="K8" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
+        <v>31</v>
+      </c>
+      <c r="B9" t="s">
         <v>32</v>
       </c>
-      <c r="B9" t="s">
+      <c r="C9" t="s">
+        <v>29</v>
+      </c>
+      <c r="K9" t="s">
         <v>33</v>
-      </c>
-      <c r="C9" t="s">
-        <v>28</v>
-      </c>
-      <c r="K9" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
+        <v>33</v>
+      </c>
+      <c r="B10" t="s">
         <v>34</v>
       </c>
-      <c r="B10" t="s">
-        <v>35</v>
-      </c>
       <c r="C10" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K10" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
+        <v>35</v>
+      </c>
+      <c r="B11" t="s">
         <v>36</v>
       </c>
-      <c r="B11" t="s">
-        <v>37</v>
-      </c>
       <c r="C11" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K11" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
+        <v>37</v>
+      </c>
+      <c r="B12" t="s">
         <v>38</v>
       </c>
-      <c r="B12" t="s">
-        <v>39</v>
-      </c>
       <c r="C12" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K12" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="B13" t="s">
         <v>40</v>
       </c>
       <c r="C13" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="K13" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
+        <v>30</v>
+      </c>
+      <c r="B14" t="s">
+        <v>41</v>
+      </c>
+      <c r="C14" t="s">
         <v>42</v>
       </c>
-      <c r="B14" t="s">
-        <v>43</v>
-      </c>
-      <c r="C14" t="s">
-        <v>41</v>
-      </c>
       <c r="K14" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
+        <v>43</v>
+      </c>
+      <c r="B15" t="s">
         <v>44</v>
       </c>
-      <c r="B15" t="s">
-        <v>45</v>
-      </c>
       <c r="C15" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K15" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
+        <v>45</v>
+      </c>
+      <c r="B16" t="s">
         <v>46</v>
       </c>
-      <c r="B16" t="s">
-        <v>47</v>
-      </c>
       <c r="C16" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K16" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
+        <v>47</v>
+      </c>
+      <c r="B17" t="s">
         <v>48</v>
       </c>
-      <c r="B17" t="s">
-        <v>49</v>
-      </c>
       <c r="C17" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K17" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
+        <v>49</v>
+      </c>
+      <c r="B18" t="s">
         <v>50</v>
       </c>
-      <c r="B18" t="s">
-        <v>51</v>
-      </c>
       <c r="C18" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="K18" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
+        <v>51</v>
+      </c>
+      <c r="B19" t="s">
+        <v>52</v>
+      </c>
+      <c r="C19" t="s">
         <v>53</v>
       </c>
-      <c r="B19" t="s">
-        <v>54</v>
-      </c>
-      <c r="C19" t="s">
-        <v>52</v>
-      </c>
       <c r="K19" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
+        <v>54</v>
+      </c>
+      <c r="B20" t="s">
         <v>55</v>
       </c>
-      <c r="B20" t="s">
-        <v>56</v>
-      </c>
       <c r="C20" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K20" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
+        <v>56</v>
+      </c>
+      <c r="B21" t="s">
         <v>57</v>
       </c>
-      <c r="B21" t="s">
-        <v>58</v>
-      </c>
       <c r="C21" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K21" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
+        <v>58</v>
+      </c>
+      <c r="B22" t="s">
         <v>59</v>
       </c>
-      <c r="B22" t="s">
-        <v>60</v>
-      </c>
       <c r="C22" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K22" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
+        <v>60</v>
+      </c>
+      <c r="B23" t="s">
         <v>61</v>
       </c>
-      <c r="B23" t="s">
-        <v>62</v>
-      </c>
       <c r="C23" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="K23" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
+        <v>62</v>
+      </c>
+      <c r="B24" t="s">
+        <v>63</v>
+      </c>
+      <c r="C24" t="s">
         <v>64</v>
       </c>
-      <c r="B24" t="s">
-        <v>65</v>
-      </c>
-      <c r="C24" t="s">
-        <v>63</v>
-      </c>
       <c r="K24" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
+        <v>65</v>
+      </c>
+      <c r="B25" t="s">
         <v>66</v>
       </c>
-      <c r="B25" t="s">
-        <v>67</v>
-      </c>
       <c r="C25" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="K25" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
+        <v>67</v>
+      </c>
+      <c r="B26" t="s">
         <v>68</v>
       </c>
-      <c r="B26" t="s">
-        <v>69</v>
-      </c>
       <c r="C26" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="K26" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
+        <v>69</v>
+      </c>
+      <c r="B27" t="s">
         <v>70</v>
       </c>
-      <c r="B27" t="s">
-        <v>71</v>
-      </c>
       <c r="C27" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="K27" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
+        <v>71</v>
+      </c>
+      <c r="B28" t="s">
         <v>72</v>
       </c>
-      <c r="B28" t="s">
-        <v>73</v>
-      </c>
       <c r="C28" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="K28" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
+        <v>73</v>
+      </c>
+      <c r="B29" t="s">
+        <v>74</v>
+      </c>
+      <c r="C29" t="s">
         <v>75</v>
       </c>
-      <c r="B29" t="s">
-        <v>76</v>
-      </c>
-      <c r="C29" t="s">
-        <v>74</v>
-      </c>
       <c r="K29" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
+        <v>76</v>
+      </c>
+      <c r="B30" t="s">
         <v>77</v>
       </c>
-      <c r="B30" t="s">
-        <v>78</v>
-      </c>
       <c r="C30" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="K30" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
+        <v>78</v>
+      </c>
+      <c r="B31" t="s">
         <v>79</v>
       </c>
-      <c r="B31" t="s">
-        <v>80</v>
-      </c>
       <c r="C31" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="K31" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
+        <v>80</v>
+      </c>
+      <c r="B32" t="s">
         <v>81</v>
       </c>
-      <c r="B32" t="s">
+      <c r="C32" t="s">
+        <v>75</v>
+      </c>
+      <c r="K32" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s">
         <v>82</v>
       </c>
-      <c r="C32" t="s">
-        <v>74</v>
-      </c>
-      <c r="K32" t="s">
-        <v>17</v>
+      <c r="B33" t="s">
+        <v>83</v>
+      </c>
+      <c r="C33" t="s">
+        <v>75</v>
+      </c>
+      <c r="K33" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/Registro de Reportes de Tutorías.xlsx
+++ b/Registro de Reportes de Tutorías.xlsx
@@ -12,9 +12,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="43">
-  <si>
-    <t>REGISTRO DE REPORTES DE TUTORÍAS DE TODOS LOS PERIODOS</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="34">
+  <si>
+    <t>REGISTRO DE REPORTES DE TUTORÍAS SEMESTRE  oct17-feb18</t>
   </si>
   <si>
     <t>UNIVERSIDAD DE LA SIERRA SUR</t>
@@ -114,33 +114,6 @@
   </si>
   <si>
     <t>NO ATENDIO A TODOS</t>
-  </si>
-  <si>
-    <t>M.A. MARIBEL RAMIREZ SANCHEZ</t>
-  </si>
-  <si>
-    <t>0034-05-11</t>
-  </si>
-  <si>
-    <t>SI muchk</t>
-  </si>
-  <si>
-    <t>GRUPAL</t>
-  </si>
-  <si>
-    <t>111</t>
-  </si>
-  <si>
-    <t>22</t>
-  </si>
-  <si>
-    <t>33</t>
-  </si>
-  <si>
-    <t>44</t>
-  </si>
-  <si>
-    <t>pokito poco</t>
   </si>
 </sst>
 </file>
@@ -277,14 +250,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:O7"/>
+  <dimension ref="A1:O6"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="4.62109375" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="31.4453125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="29.15234375" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="3.734375" customWidth="true" bestFit="true"/>
     <col min="4" max="4" width="18.734375" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="22.24609375" customWidth="true" bestFit="true"/>
@@ -446,50 +419,6 @@
         <v>33</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="J7" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="K7" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="L7" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="M7" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="N7" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
   </sheetData>
   <mergeCells>
     <mergeCell ref="A1:N1"/>

--- a/Registro de Reportes de Tutorías.xlsx
+++ b/Registro de Reportes de Tutorías.xlsx
@@ -12,9 +12,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="30">
-  <si>
-    <t>REGISTRO DE REPORTES DE TUTORÍAS DE TODOS LOS PERIODOS</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="20">
+  <si>
+    <t>REGISTRO DE REPORTES DE TUTORÍAS SEMESTRE  feb2019-agos2019</t>
   </si>
   <si>
     <t>UNIVERSIDAD DE LA SIERRA SUR</t>
@@ -72,36 +72,6 @@
   </si>
   <si>
     <t>OBSERVACIONES</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>DOCTORADO JESUS CRUZ AHUACTZI</t>
-  </si>
-  <si>
-    <t>LI</t>
-  </si>
-  <si>
-    <t>SI</t>
-  </si>
-  <si>
-    <t>2019-02-12</t>
-  </si>
-  <si>
-    <t>NINGUNO</t>
-  </si>
-  <si>
-    <t>INDIVIDUAL</t>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>5</t>
   </si>
 </sst>
 </file>
@@ -238,14 +208,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:O6"/>
+  <dimension ref="A1:O5"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="4.62109375" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="33.4921875" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="10.80078125" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="3.734375" customWidth="true" bestFit="true"/>
     <col min="4" max="4" width="18.734375" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="22.24609375" customWidth="true" bestFit="true"/>
@@ -363,50 +333,6 @@
         <v>19</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="I6" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="J6" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="K6" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="L6" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="M6" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="N6" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
   </sheetData>
   <mergeCells>
     <mergeCell ref="A1:N1"/>
